--- a/experiment/optoPlate_config_test.xlsx
+++ b/experiment/optoPlate_config_test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Documents\MATLAB\Optoplate-96\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D17F83E-FD12-43B7-978B-215BA9B8089E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665F3C6-F8E0-40AF-A8D2-1746EF2A96C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74911ACF-93F9-483C-A5E0-FE442A5002E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="optoPlate_config" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/experiment/optoPlate_config_test.xlsx
+++ b/experiment/optoPlate_config_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Documents\MATLAB\Optoplate-96\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kieran\Optoplate-96\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6665F3C6-F8E0-40AF-A8D2-1746EF2A96C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F977764F-D97B-4ADE-874F-9554E8CF80E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74911ACF-93F9-483C-A5E0-FE442A5002E2}"/>
   </bookViews>
@@ -20,12 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -510,7 +504,7 @@
   <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,40 +1139,40 @@
         <v>0</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>0</v>
@@ -1192,40 +1186,52 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <f>B12+12</f>
+        <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <f t="shared" ref="C13:M13" si="0">C12+12</f>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>1</v>
@@ -1239,40 +1245,52 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <f>B13+12</f>
+        <v>25</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <f t="shared" ref="C14:C19" si="1">C13+12</f>
+        <v>26</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <f t="shared" ref="D14:D19" si="2">D13+12</f>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <f t="shared" ref="E14:E19" si="3">E13+12</f>
+        <v>28</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <f t="shared" ref="F14:F19" si="4">F13+12</f>
+        <v>29</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <f t="shared" ref="G14:G19" si="5">G13+12</f>
+        <v>30</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <f t="shared" ref="H14:H19" si="6">H13+12</f>
+        <v>31</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <f t="shared" ref="I14:I19" si="7">I13+12</f>
+        <v>32</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <f t="shared" ref="J14:J19" si="8">J13+12</f>
+        <v>33</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <f t="shared" ref="K14:K19" si="9">K13+12</f>
+        <v>34</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <f t="shared" ref="L14:L19" si="10">L13+12</f>
+        <v>35</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <f t="shared" ref="M14:M19" si="11">M13+12</f>
+        <v>36</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>2</v>
@@ -1286,40 +1304,52 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <f>B14+12</f>
+        <v>37</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>44</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>46</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>47</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>48</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>3</v>
@@ -1333,40 +1363,52 @@
         <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <f>B15+12</f>
+        <v>49</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>57</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>58</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>59</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>4</v>
@@ -1380,40 +1422,52 @@
         <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <f>B16+12</f>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>65</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>67</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>68</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>71</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>72</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>5</v>
@@ -1427,40 +1481,52 @@
         <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <f>B17+12</f>
+        <v>73</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>78</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>79</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>82</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>6</v>
@@ -1474,40 +1540,52 @@
         <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <f>B18+12</f>
+        <v>85</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>88</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>93</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>94</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>96</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>7</v>
@@ -1640,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>0</v>
@@ -1687,40 +1765,40 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>1</v>
@@ -1734,40 +1812,40 @@
         <v>2</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>2</v>
@@ -1781,40 +1859,40 @@
         <v>3</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>3</v>
@@ -1828,40 +1906,40 @@
         <v>4</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>4</v>
@@ -1875,40 +1953,40 @@
         <v>5</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>5</v>
@@ -1922,40 +2000,40 @@
         <v>6</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>6</v>
@@ -1969,40 +2047,40 @@
         <v>7</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>7</v>
@@ -2135,40 +2213,40 @@
         <v>0</v>
       </c>
       <c r="B32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M32" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>0</v>
@@ -2182,40 +2260,40 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M33" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>1</v>
@@ -2229,40 +2307,40 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M34" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>2</v>
@@ -2276,40 +2354,40 @@
         <v>3</v>
       </c>
       <c r="B35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M35" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>3</v>
@@ -2323,40 +2401,40 @@
         <v>4</v>
       </c>
       <c r="B36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M36" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>4</v>
@@ -2370,40 +2448,40 @@
         <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M37" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>5</v>
@@ -2417,40 +2495,40 @@
         <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M38" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>6</v>
@@ -2464,40 +2542,40 @@
         <v>7</v>
       </c>
       <c r="B39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="D39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M39" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>7</v>
@@ -2630,40 +2708,40 @@
         <v>0</v>
       </c>
       <c r="B42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>0</v>
@@ -2677,40 +2755,40 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>1</v>
@@ -2724,40 +2802,40 @@
         <v>2</v>
       </c>
       <c r="B44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>2</v>
@@ -2771,40 +2849,40 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>3</v>
@@ -2818,40 +2896,40 @@
         <v>4</v>
       </c>
       <c r="B46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>4</v>
@@ -2865,40 +2943,40 @@
         <v>5</v>
       </c>
       <c r="B47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>5</v>
@@ -2912,40 +2990,40 @@
         <v>6</v>
       </c>
       <c r="B48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>6</v>
@@ -2959,40 +3037,40 @@
         <v>7</v>
       </c>
       <c r="B49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>7</v>
